--- a/轴表.xlsx
+++ b/轴表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\pcrbattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA93B1CE-764B-404E-9189-05FAEBAC3925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79905EC-9EEA-4846-AC6E-4B5C2AFA5C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10125" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,12 +455,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
     <col min="5" max="5" width="3.875" customWidth="1"/>

--- a/轴表.xlsx
+++ b/轴表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\pcrbattle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengjk\Desktop\pcrbattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79905EC-9EEA-4846-AC6E-4B5C2AFA5C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE0767-7370-4673-86FE-54715913892C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1716" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>a1</t>
   </si>
@@ -127,6 +127,118 @@
   </si>
   <si>
     <t>狼 圣锤 病娇 环奈 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克 yly 黑猫 水黑 xcw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 妈 克 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 剑圣 环奈 水白 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 病娇 剑圣 环奈 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 智 剑圣 栞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 病娇 克 环奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 智 病娇 克 水白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 病娇 忍 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yly 妹法 姐法 水黑 xcw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 病娇 剑圣 克 水白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 病娇 克 环奈 水白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑骑 狼 病娇 克 环奈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,16 +261,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,12 +292,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,21 +602,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="35.625" customWidth="1"/>
-    <col min="5" max="5" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -477,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -488,7 +638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -499,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -510,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -521,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -532,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -543,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -554,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -565,7 +715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -576,7 +726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -586,6 +736,141 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/轴表.xlsx
+++ b/轴表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengjk\Desktop\pcrbattle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\pcrbattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE0767-7370-4673-86FE-54715913892C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2E451-E2DB-4F72-B27E-A2B1A76A559F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1716" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>a1</t>
   </si>
@@ -66,179 +66,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>350w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>270w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狼 病娇 克 环奈 yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 病娇 忍 环奈 yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 智 病娇 忍 yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春猫 病娇 克 忍 yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yly 妹法 姐法 水黑 xcw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 狗 智 克 tp弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>240w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 克 病娇 忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 克 病娇 智 猫拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 猫拳 吉他 环奈 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 克总 病娇 环奈 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 剑圣 智 猫拳 吉他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 克总 病娇 环奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>345w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克总 忍 病娇 春猫 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 病娇 吉他 忍 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍 克总 病娇 春猫 智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 忍 病娇 吉他 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>237w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 克总 智 栞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 剑圣 智 栞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗 圣锤 克总 剑圣 忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 剑圣 环奈 狗 圣锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 克总 环奈 病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 圣锤 环奈 病娇 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 克总 病娇 忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>290w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 猫拳 克总 病娇 忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>275w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 猫拳 克总 病娇 水白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yly 水黑 妹法 xcw 七七香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 病娇 克总 熊锤 水白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 病娇 克总 剑圣 水白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克总 病娇 剑圣 忍 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>200w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>310w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 狗 病娇 克 环奈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 圣锤 病娇 环奈 yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克 yly 黑猫 水黑 xcw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 狗 妈 克 yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 剑圣 环奈 水白 yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 病娇 剑圣 环奈 yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 狗 智 剑圣 栞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>280w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>310w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 狗 病娇 克 环奈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 智 病娇 克 水白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 狗 病娇 忍 yls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yly 妹法 姐法 水黑 xcw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 病娇 剑圣 克 水白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼 病娇 克 环奈 水白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑骑 狼 病娇 克 环奈</t>
+    <t>狼 春猫 环奈 病娇 yls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 克 剑圣 水白 惠理子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄骑 yly xcw 水黑 黑猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 妈 tp弓 狗 病娇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,21 +654,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -626,8 +678,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -637,240 +692,421 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/轴表.xlsx
+++ b/轴表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengjk\Desktop\pcrbattle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\pcrbattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51615307-29B6-42EA-97E1-83F63B64FF6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA8382B-A690-4672-B81E-7922B330F397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1260" windowWidth="16785" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,90 @@
   </si>
   <si>
     <t>狼 狗 病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 病娇 环奈 栞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 病娇 环奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yly xcw 水黑 黑猫 七七香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛 炸弹人 ue 子龙 铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 病娇 水白 yls 剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 猫拳 吉他 病娇 剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 狗 病娇 忍 环奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yly xcw 水黑 妹法 七七香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼 克总 剑圣 水白 病娇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +464,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -455,6 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,21 +837,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -781,7 +882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -795,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -812,7 +913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -829,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -846,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -863,7 +964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -880,7 +981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -897,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -914,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -931,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -948,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -965,7 +1066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -982,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -999,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1033,7 +1134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1115,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1199,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1314,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1227,45 +1328,118 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D43">
-    <sortCondition descending="1" ref="A1:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D38">
+    <sortCondition descending="1" ref="A1:A38"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
